--- a/biology/Médecine/Massif_facial/Massif_facial.xlsx
+++ b/biology/Médecine/Massif_facial/Massif_facial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le massif facial (ou squelette facial ou os de la face) est l'ensemble des os qui constituent le squelette du visage. Il fait partie du splanchnocrâne.
 </t>
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le massif facial humain est constitué de quatorze os
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le massif facial humain est constitué de quatorze os
 six os pairs et deux os impairs :
 les cornets nasaux inférieurs,
 les os lacrymaux,
@@ -523,12 +537,7 @@
 les os zygomatiques,
 deux os impairs
 le mandibule,
-le vomer.
-Variante
-Parfois l'os hyoïde, qui fait partie du splanchnocrâne, est considéré comme faisant partie du squelette facial
-De même l'os ethmoïde et l'os sphénoïde, faisant partie du neurocrâne, peuvent être inclus dans le squelette facial.
-Les os maxillaires étant fusionnés, ils sont souvent répertoriés collectivement comme un seul os.
-</t>
+le vomer.</t>
         </is>
       </c>
     </row>
@@ -553,10 +562,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variante</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parfois l'os hyoïde, qui fait partie du splanchnocrâne, est considéré comme faisant partie du squelette facial
+De même l'os ethmoïde et l'os sphénoïde, faisant partie du neurocrâne, peuvent être inclus dans le squelette facial.
+Les os maxillaires étant fusionnés, ils sont souvent répertoriés collectivement comme un seul os.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Massif_facial</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Massif_facial</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les os du massif facial au sens strict du terme sont des os dermiques issu de l'ossification de la profondeur du derme.
 </t>
